--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30f66ac5a09fb142/Escritorio/Abv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olecr\Desktop\Exp3Backend_EspinozaValderramaVenegas_002D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{BF3D80C9-A6E3-4049-AB92-328B9F6347A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E01524F8-4F11-49AA-8A9B-D3BBB24F1B5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C37036-A284-49B7-99EA-8F6B5BB32AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
   </bookViews>
   <sheets>
     <sheet name="BitácoraExperiencia1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Equipo</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>se crea la validacion de formularios en iniciar sesion y registrarse</t>
+  </si>
+  <si>
+    <t>Experiencia 3</t>
+  </si>
+  <si>
+    <t>Se implementa Django en nuestro proyecto</t>
+  </si>
+  <si>
+    <t>Se implementa Oracle en Django</t>
+  </si>
+  <si>
+    <t>Se crea la aplicacion</t>
+  </si>
+  <si>
+    <t>Se implementa el crear mascota y su html</t>
+  </si>
+  <si>
+    <t>Se implementa el modificar mascota y su html</t>
+  </si>
+  <si>
+    <t>Se implementa el borrar mascota y su html</t>
+  </si>
+  <si>
+    <t>Se implementa el ver mascotas y su html</t>
+  </si>
+  <si>
+    <t>Se implementa el boton de mascotas registradas en los html principales</t>
+  </si>
+  <si>
+    <t>Sebastian Espinoza- Damian Valderrama-Nicolas Venegas</t>
+  </si>
+  <si>
+    <t>Se realiza modificacion de funciones Django en los archivos html y py del proyecto</t>
+  </si>
+  <si>
+    <t>Sebastian Espinoza - Damian Valderrama - Nicolas Venegas</t>
   </si>
 </sst>
 </file>
@@ -539,17 +575,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA7284-98DD-4C9B-85C9-6827807F75AB}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -843,9 +879,141 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
